--- a/샘플-데이터-제1정규화(.xlsx
+++ b/샘플-데이터-제1정규화(.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="학생정보" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2263" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2263" uniqueCount="555">
   <si>
     <t>학번</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1790,6 +1790,13 @@
   <si>
     <t>S0020</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0020</t>
   </si>
 </sst>
 </file>
@@ -2082,7 +2089,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2AFE27EF-43B7-4808-99EA-AE410A6D5ED9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AFE27EF-43B7-4808-99EA-AE410A6D5ED9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2143,7 +2150,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B2B7F705-6773-49A6-B920-B47F42BEFA80}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2B7F705-6773-49A6-B920-B47F42BEFA80}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2454,8 +2461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2496,14 +2503,14 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>214</v>
+        <v>553</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">"010" &amp; TEXT(RANDBETWEEN(10000000,99999999),"-0000-0000")</f>
-        <v>010-6175-7175</v>
+        <v>010-2960-0038</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>314</v>
@@ -2525,14 +2532,14 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>215</v>
+        <v>453</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="5" t="str">
         <f t="shared" ref="C3:C66" ca="1" si="0">"010" &amp; TEXT(RANDBETWEEN(10000000,99999999),"-0000-0000")</f>
-        <v>010-1296-3342</v>
+        <v>010-7784-6240</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>315</v>
@@ -2554,14 +2561,14 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>216</v>
+        <v>454</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3451-4933</v>
+        <v>010-6729-3918</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>348</v>
@@ -2583,14 +2590,14 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>217</v>
+        <v>455</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9433-6916</v>
+        <v>010-7082-7184</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>349</v>
@@ -2612,14 +2619,14 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>218</v>
+        <v>456</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2654-3160</v>
+        <v>010-5908-9237</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>316</v>
@@ -2641,14 +2648,14 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>219</v>
+        <v>457</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7247-8352</v>
+        <v>010-8939-0832</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>317</v>
@@ -2670,14 +2677,14 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>220</v>
+        <v>458</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1576-4287</v>
+        <v>010-8098-2148</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>344</v>
@@ -2699,14 +2706,14 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>221</v>
+        <v>459</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5223-0524</v>
+        <v>010-3853-6584</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>318</v>
@@ -2728,14 +2735,14 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>222</v>
+        <v>460</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7666-3202</v>
+        <v>010-9821-2003</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>319</v>
@@ -2757,14 +2764,14 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>223</v>
+        <v>461</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8538-7274</v>
+        <v>010-3787-1681</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>346</v>
@@ -2786,14 +2793,14 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>224</v>
+        <v>462</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2885-6978</v>
+        <v>010-7949-9873</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>347</v>
@@ -2815,14 +2822,14 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>225</v>
+        <v>463</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3357-4501</v>
+        <v>010-1902-2538</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>320</v>
@@ -2844,14 +2851,14 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>226</v>
+        <v>464</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2430-9625</v>
+        <v>010-7114-8965</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>350</v>
@@ -2873,14 +2880,14 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>227</v>
+        <v>465</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8333-1671</v>
+        <v>010-2998-0708</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>321</v>
@@ -2902,14 +2909,14 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>228</v>
+        <v>466</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2767-9887</v>
+        <v>010-2849-5609</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>322</v>
@@ -2931,14 +2938,14 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>229</v>
+        <v>467</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1535-2809</v>
+        <v>010-5463-4145</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>323</v>
@@ -2960,14 +2967,14 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>230</v>
+        <v>468</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1239-8128</v>
+        <v>010-3269-5847</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>345</v>
@@ -2989,14 +2996,14 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>231</v>
+        <v>469</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9277-9272</v>
+        <v>010-2757-3560</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>351</v>
@@ -3018,14 +3025,14 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>232</v>
+        <v>470</v>
       </c>
       <c r="B20" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6122-3909</v>
+        <v>010-5963-4789</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>352</v>
@@ -3047,14 +3054,14 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>233</v>
+        <v>554</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4983-4674</v>
+        <v>010-4939-2240</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>353</v>
@@ -3076,14 +3083,14 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>234</v>
+        <v>471</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6273-2166</v>
+        <v>010-6232-8762</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>354</v>
@@ -3105,14 +3112,14 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>235</v>
+        <v>472</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5428-0549</v>
+        <v>010-2633-4404</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>355</v>
@@ -3134,14 +3141,14 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>236</v>
+        <v>473</v>
       </c>
       <c r="B24" s="19" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4102-1105</v>
+        <v>010-2972-9982</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>324</v>
@@ -3163,14 +3170,14 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>237</v>
+        <v>474</v>
       </c>
       <c r="B25" s="19" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3109-1846</v>
+        <v>010-5924-7600</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>325</v>
@@ -3192,14 +3199,14 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>238</v>
+        <v>475</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5196-0035</v>
+        <v>010-6233-1147</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>326</v>
@@ -3221,14 +3228,14 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>239</v>
+        <v>476</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9573-7819</v>
+        <v>010-3771-6070</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>356</v>
@@ -3250,14 +3257,14 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>240</v>
+        <v>477</v>
       </c>
       <c r="B28" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3909-3326</v>
+        <v>010-4005-4779</v>
       </c>
       <c r="D28" s="15" t="s">
         <v>357</v>
@@ -3279,14 +3286,14 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>241</v>
+        <v>478</v>
       </c>
       <c r="B29" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9126-1625</v>
+        <v>010-1079-9657</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>358</v>
@@ -3308,14 +3315,14 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>242</v>
+        <v>479</v>
       </c>
       <c r="B30" s="19" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5158-6960</v>
+        <v>010-8504-3298</v>
       </c>
       <c r="D30" s="15" t="s">
         <v>327</v>
@@ -3337,14 +3344,14 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>243</v>
+        <v>480</v>
       </c>
       <c r="B31" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3334-5632</v>
+        <v>010-6145-3787</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>328</v>
@@ -3366,14 +3373,14 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>244</v>
+        <v>481</v>
       </c>
       <c r="B32" s="19" t="s">
         <v>32</v>
       </c>
       <c r="C32" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6413-2356</v>
+        <v>010-8736-2332</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>359</v>
@@ -3395,14 +3402,14 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>245</v>
+        <v>482</v>
       </c>
       <c r="B33" s="19" t="s">
         <v>33</v>
       </c>
       <c r="C33" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3930-5163</v>
+        <v>010-5030-2033</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>329</v>
@@ -3424,14 +3431,14 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>246</v>
+        <v>483</v>
       </c>
       <c r="B34" s="19" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4130-8830</v>
+        <v>010-7332-3135</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>330</v>
@@ -3453,14 +3460,14 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>247</v>
+        <v>484</v>
       </c>
       <c r="B35" s="19" t="s">
         <v>35</v>
       </c>
       <c r="C35" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1989-6357</v>
+        <v>010-8476-4804</v>
       </c>
       <c r="D35" s="15" t="s">
         <v>331</v>
@@ -3482,14 +3489,14 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>248</v>
+        <v>485</v>
       </c>
       <c r="B36" s="19" t="s">
         <v>36</v>
       </c>
       <c r="C36" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1823-8220</v>
+        <v>010-7449-6206</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>332</v>
@@ -3511,14 +3518,14 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>249</v>
+        <v>486</v>
       </c>
       <c r="B37" s="19" t="s">
         <v>37</v>
       </c>
       <c r="C37" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4093-9804</v>
+        <v>010-7920-3162</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>333</v>
@@ -3540,14 +3547,14 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>250</v>
+        <v>487</v>
       </c>
       <c r="B38" s="19" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8606-7025</v>
+        <v>010-1272-4884</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>360</v>
@@ -3569,14 +3576,14 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>251</v>
+        <v>488</v>
       </c>
       <c r="B39" s="19" t="s">
         <v>39</v>
       </c>
       <c r="C39" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7837-5782</v>
+        <v>010-1689-1855</v>
       </c>
       <c r="D39" s="15" t="s">
         <v>361</v>
@@ -3598,14 +3605,14 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>252</v>
+        <v>489</v>
       </c>
       <c r="B40" s="19" t="s">
         <v>40</v>
       </c>
       <c r="C40" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8594-1456</v>
+        <v>010-7236-4070</v>
       </c>
       <c r="D40" s="15" t="s">
         <v>362</v>
@@ -3627,14 +3634,14 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>253</v>
+        <v>490</v>
       </c>
       <c r="B41" s="19" t="s">
         <v>41</v>
       </c>
       <c r="C41" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9069-8155</v>
+        <v>010-5026-5230</v>
       </c>
       <c r="D41" s="15" t="s">
         <v>363</v>
@@ -3656,14 +3663,14 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>254</v>
+        <v>491</v>
       </c>
       <c r="B42" s="19" t="s">
         <v>42</v>
       </c>
       <c r="C42" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2029-6197</v>
+        <v>010-9079-7075</v>
       </c>
       <c r="D42" s="15" t="s">
         <v>334</v>
@@ -3685,14 +3692,14 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>255</v>
+        <v>492</v>
       </c>
       <c r="B43" s="19" t="s">
         <v>43</v>
       </c>
       <c r="C43" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9571-4480</v>
+        <v>010-1922-9521</v>
       </c>
       <c r="D43" s="15" t="s">
         <v>335</v>
@@ -3714,14 +3721,14 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>256</v>
+        <v>493</v>
       </c>
       <c r="B44" s="19" t="s">
         <v>44</v>
       </c>
       <c r="C44" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9223-0644</v>
+        <v>010-9622-3352</v>
       </c>
       <c r="D44" s="15" t="s">
         <v>336</v>
@@ -3743,14 +3750,14 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>257</v>
+        <v>494</v>
       </c>
       <c r="B45" s="19" t="s">
         <v>45</v>
       </c>
       <c r="C45" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5309-8158</v>
+        <v>010-2777-2935</v>
       </c>
       <c r="D45" s="15" t="s">
         <v>337</v>
@@ -3772,14 +3779,14 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>258</v>
+        <v>495</v>
       </c>
       <c r="B46" s="19" t="s">
         <v>46</v>
       </c>
       <c r="C46" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1390-5653</v>
+        <v>010-3933-0909</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>364</v>
@@ -3801,14 +3808,14 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>259</v>
+        <v>496</v>
       </c>
       <c r="B47" s="19" t="s">
         <v>47</v>
       </c>
       <c r="C47" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9130-8823</v>
+        <v>010-5391-1875</v>
       </c>
       <c r="D47" s="15" t="s">
         <v>365</v>
@@ -3830,14 +3837,14 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>260</v>
+        <v>497</v>
       </c>
       <c r="B48" s="19" t="s">
         <v>48</v>
       </c>
       <c r="C48" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3171-1088</v>
+        <v>010-9441-8764</v>
       </c>
       <c r="D48" s="15" t="s">
         <v>366</v>
@@ -3859,14 +3866,14 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>261</v>
+        <v>498</v>
       </c>
       <c r="B49" s="19" t="s">
         <v>49</v>
       </c>
       <c r="C49" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1688-2963</v>
+        <v>010-8427-7352</v>
       </c>
       <c r="D49" s="15" t="s">
         <v>367</v>
@@ -3888,14 +3895,14 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>262</v>
+        <v>499</v>
       </c>
       <c r="B50" s="19" t="s">
         <v>50</v>
       </c>
       <c r="C50" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5306-0400</v>
+        <v>010-2019-2469</v>
       </c>
       <c r="D50" s="15" t="s">
         <v>338</v>
@@ -3917,14 +3924,14 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>263</v>
+        <v>500</v>
       </c>
       <c r="B51" s="19" t="s">
         <v>51</v>
       </c>
       <c r="C51" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1803-2863</v>
+        <v>010-5065-0445</v>
       </c>
       <c r="D51" s="15" t="s">
         <v>339</v>
@@ -3946,14 +3953,14 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>264</v>
+        <v>501</v>
       </c>
       <c r="B52" s="19" t="s">
         <v>52</v>
       </c>
       <c r="C52" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8762-1341</v>
+        <v>010-8553-0672</v>
       </c>
       <c r="D52" s="15" t="s">
         <v>340</v>
@@ -3975,14 +3982,14 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>265</v>
+        <v>502</v>
       </c>
       <c r="B53" s="19" t="s">
         <v>53</v>
       </c>
       <c r="C53" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9252-0574</v>
+        <v>010-3595-1225</v>
       </c>
       <c r="D53" s="15" t="s">
         <v>341</v>
@@ -4004,14 +4011,14 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>266</v>
+        <v>503</v>
       </c>
       <c r="B54" s="19" t="s">
         <v>54</v>
       </c>
       <c r="C54" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4192-6689</v>
+        <v>010-7820-9231</v>
       </c>
       <c r="D54" s="15" t="s">
         <v>368</v>
@@ -4033,14 +4040,14 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>267</v>
+        <v>504</v>
       </c>
       <c r="B55" s="19" t="s">
         <v>55</v>
       </c>
       <c r="C55" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8660-1473</v>
+        <v>010-6918-1690</v>
       </c>
       <c r="D55" s="15" t="s">
         <v>369</v>
@@ -4062,14 +4069,14 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>268</v>
+        <v>505</v>
       </c>
       <c r="B56" s="19" t="s">
         <v>56</v>
       </c>
       <c r="C56" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2209-1565</v>
+        <v>010-4538-2885</v>
       </c>
       <c r="D56" s="15" t="s">
         <v>342</v>
@@ -4091,14 +4098,14 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>269</v>
+        <v>506</v>
       </c>
       <c r="B57" s="19" t="s">
         <v>57</v>
       </c>
       <c r="C57" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9411-2992</v>
+        <v>010-4603-9929</v>
       </c>
       <c r="D57" s="15" t="s">
         <v>370</v>
@@ -4120,14 +4127,14 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>270</v>
+        <v>507</v>
       </c>
       <c r="B58" s="19" t="s">
         <v>58</v>
       </c>
       <c r="C58" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2784-2031</v>
+        <v>010-2273-9191</v>
       </c>
       <c r="D58" s="15" t="s">
         <v>343</v>
@@ -4149,14 +4156,14 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>271</v>
+        <v>508</v>
       </c>
       <c r="B59" s="19" t="s">
         <v>59</v>
       </c>
       <c r="C59" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4011-6605</v>
+        <v>010-8595-9261</v>
       </c>
       <c r="D59" s="15" t="s">
         <v>371</v>
@@ -4178,14 +4185,14 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>272</v>
+        <v>509</v>
       </c>
       <c r="B60" s="19" t="s">
         <v>60</v>
       </c>
       <c r="C60" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6621-5857</v>
+        <v>010-8240-5409</v>
       </c>
       <c r="D60" s="15" t="s">
         <v>372</v>
@@ -4207,14 +4214,14 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>273</v>
+        <v>510</v>
       </c>
       <c r="B61" s="19" t="s">
         <v>61</v>
       </c>
       <c r="C61" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7805-7664</v>
+        <v>010-2916-3838</v>
       </c>
       <c r="D61" s="15" t="s">
         <v>373</v>
@@ -4236,14 +4243,14 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>274</v>
+        <v>511</v>
       </c>
       <c r="B62" s="19" t="s">
         <v>62</v>
       </c>
       <c r="C62" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6224-8772</v>
+        <v>010-9669-6157</v>
       </c>
       <c r="D62" s="15" t="s">
         <v>404</v>
@@ -4265,14 +4272,14 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>275</v>
+        <v>512</v>
       </c>
       <c r="B63" s="19" t="s">
         <v>63</v>
       </c>
       <c r="C63" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6832-6511</v>
+        <v>010-3361-0945</v>
       </c>
       <c r="D63" s="15" t="s">
         <v>374</v>
@@ -4294,14 +4301,14 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>276</v>
+        <v>513</v>
       </c>
       <c r="B64" s="19" t="s">
         <v>64</v>
       </c>
       <c r="C64" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3407-7951</v>
+        <v>010-8909-0537</v>
       </c>
       <c r="D64" s="15" t="s">
         <v>375</v>
@@ -4323,14 +4330,14 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>277</v>
+        <v>514</v>
       </c>
       <c r="B65" s="19" t="s">
         <v>65</v>
       </c>
       <c r="C65" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9165-4504</v>
+        <v>010-6768-0760</v>
       </c>
       <c r="D65" s="15" t="s">
         <v>376</v>
@@ -4352,14 +4359,14 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>278</v>
+        <v>515</v>
       </c>
       <c r="B66" s="19" t="s">
         <v>66</v>
       </c>
       <c r="C66" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7789-6740</v>
+        <v>010-7495-5171</v>
       </c>
       <c r="D66" s="15" t="s">
         <v>377</v>
@@ -4381,14 +4388,14 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>279</v>
+        <v>516</v>
       </c>
       <c r="B67" s="19" t="s">
         <v>67</v>
       </c>
       <c r="C67" s="5" t="str">
         <f t="shared" ref="C67:C101" ca="1" si="1">"010" &amp; TEXT(RANDBETWEEN(10000000,99999999),"-0000-0000")</f>
-        <v>010-1728-2238</v>
+        <v>010-6303-3910</v>
       </c>
       <c r="D67" s="15" t="s">
         <v>378</v>
@@ -4410,14 +4417,14 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>280</v>
+        <v>517</v>
       </c>
       <c r="B68" s="19" t="s">
         <v>68</v>
       </c>
       <c r="C68" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2899-5077</v>
+        <v>010-8692-2486</v>
       </c>
       <c r="D68" s="15" t="s">
         <v>379</v>
@@ -4439,14 +4446,14 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>281</v>
+        <v>518</v>
       </c>
       <c r="B69" s="19" t="s">
         <v>69</v>
       </c>
       <c r="C69" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9572-1072</v>
+        <v>010-1537-8958</v>
       </c>
       <c r="D69" s="15" t="s">
         <v>405</v>
@@ -4468,14 +4475,14 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>282</v>
+        <v>519</v>
       </c>
       <c r="B70" s="19" t="s">
         <v>70</v>
       </c>
       <c r="C70" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4061-0256</v>
+        <v>010-7250-3535</v>
       </c>
       <c r="D70" s="15" t="s">
         <v>380</v>
@@ -4497,14 +4504,14 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>283</v>
+        <v>520</v>
       </c>
       <c r="B71" s="19" t="s">
         <v>71</v>
       </c>
       <c r="C71" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4731-3521</v>
+        <v>010-7358-3578</v>
       </c>
       <c r="D71" s="15" t="s">
         <v>406</v>
@@ -4526,14 +4533,14 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>284</v>
+        <v>521</v>
       </c>
       <c r="B72" s="19" t="s">
         <v>72</v>
       </c>
       <c r="C72" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3549-0523</v>
+        <v>010-9037-3252</v>
       </c>
       <c r="D72" s="15" t="s">
         <v>381</v>
@@ -4555,14 +4562,14 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>285</v>
+        <v>522</v>
       </c>
       <c r="B73" s="19" t="s">
         <v>73</v>
       </c>
       <c r="C73" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6324-1716</v>
+        <v>010-5372-1656</v>
       </c>
       <c r="D73" s="15" t="s">
         <v>382</v>
@@ -4584,14 +4591,14 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>286</v>
+        <v>523</v>
       </c>
       <c r="B74" s="19" t="s">
         <v>74</v>
       </c>
       <c r="C74" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1265-8777</v>
+        <v>010-1394-8301</v>
       </c>
       <c r="D74" s="15" t="s">
         <v>383</v>
@@ -4613,14 +4620,14 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>287</v>
+        <v>524</v>
       </c>
       <c r="B75" s="19" t="s">
         <v>75</v>
       </c>
       <c r="C75" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7820-9316</v>
+        <v>010-2788-6533</v>
       </c>
       <c r="D75" s="15" t="s">
         <v>384</v>
@@ -4642,14 +4649,14 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>288</v>
+        <v>525</v>
       </c>
       <c r="B76" s="19" t="s">
         <v>76</v>
       </c>
       <c r="C76" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3502-1632</v>
+        <v>010-3623-4982</v>
       </c>
       <c r="D76" s="15" t="s">
         <v>407</v>
@@ -4671,14 +4678,14 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>289</v>
+        <v>526</v>
       </c>
       <c r="B77" s="19" t="s">
         <v>77</v>
       </c>
       <c r="C77" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7922-1268</v>
+        <v>010-2419-6102</v>
       </c>
       <c r="D77" s="15" t="s">
         <v>408</v>
@@ -4700,14 +4707,14 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>290</v>
+        <v>527</v>
       </c>
       <c r="B78" s="19" t="s">
         <v>78</v>
       </c>
       <c r="C78" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5035-3406</v>
+        <v>010-5460-4593</v>
       </c>
       <c r="D78" s="15" t="s">
         <v>385</v>
@@ -4729,14 +4736,14 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>291</v>
+        <v>528</v>
       </c>
       <c r="B79" s="19" t="s">
         <v>79</v>
       </c>
       <c r="C79" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9316-8952</v>
+        <v>010-7094-3179</v>
       </c>
       <c r="D79" s="15" t="s">
         <v>386</v>
@@ -4758,14 +4765,14 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>292</v>
+        <v>529</v>
       </c>
       <c r="B80" s="19" t="s">
         <v>80</v>
       </c>
       <c r="C80" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7281-2405</v>
+        <v>010-5731-7957</v>
       </c>
       <c r="D80" s="15" t="s">
         <v>409</v>
@@ -4787,14 +4794,14 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>293</v>
+        <v>530</v>
       </c>
       <c r="B81" s="19" t="s">
         <v>81</v>
       </c>
       <c r="C81" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2433-4952</v>
+        <v>010-7963-1017</v>
       </c>
       <c r="D81" s="15" t="s">
         <v>387</v>
@@ -4816,14 +4823,14 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>294</v>
+        <v>531</v>
       </c>
       <c r="B82" s="19" t="s">
         <v>82</v>
       </c>
       <c r="C82" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2531-7482</v>
+        <v>010-2464-4262</v>
       </c>
       <c r="D82" s="15" t="s">
         <v>410</v>
@@ -4845,14 +4852,14 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>295</v>
+        <v>532</v>
       </c>
       <c r="B83" s="19" t="s">
         <v>83</v>
       </c>
       <c r="C83" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7089-2083</v>
+        <v>010-1710-6490</v>
       </c>
       <c r="D83" s="15" t="s">
         <v>388</v>
@@ -4874,14 +4881,14 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>296</v>
+        <v>533</v>
       </c>
       <c r="B84" s="19" t="s">
         <v>84</v>
       </c>
       <c r="C84" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1373-8160</v>
+        <v>010-5564-1732</v>
       </c>
       <c r="D84" s="15" t="s">
         <v>389</v>
@@ -4903,14 +4910,14 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>297</v>
+        <v>534</v>
       </c>
       <c r="B85" s="19" t="s">
         <v>85</v>
       </c>
       <c r="C85" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7860-7915</v>
+        <v>010-3152-7957</v>
       </c>
       <c r="D85" s="15" t="s">
         <v>390</v>
@@ -4932,14 +4939,14 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>298</v>
+        <v>535</v>
       </c>
       <c r="B86" s="19" t="s">
         <v>86</v>
       </c>
       <c r="C86" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5133-1148</v>
+        <v>010-4082-5496</v>
       </c>
       <c r="D86" s="15" t="s">
         <v>391</v>
@@ -4961,14 +4968,14 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>299</v>
+        <v>536</v>
       </c>
       <c r="B87" s="19" t="s">
         <v>87</v>
       </c>
       <c r="C87" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8661-7012</v>
+        <v>010-4799-6473</v>
       </c>
       <c r="D87" s="15" t="s">
         <v>392</v>
@@ -4990,14 +4997,14 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>300</v>
+        <v>537</v>
       </c>
       <c r="B88" s="19" t="s">
         <v>88</v>
       </c>
       <c r="C88" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9380-6224</v>
+        <v>010-9684-9604</v>
       </c>
       <c r="D88" s="15" t="s">
         <v>411</v>
@@ -5019,14 +5026,14 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>301</v>
+        <v>538</v>
       </c>
       <c r="B89" s="19" t="s">
         <v>89</v>
       </c>
       <c r="C89" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9650-8418</v>
+        <v>010-6173-3488</v>
       </c>
       <c r="D89" s="15" t="s">
         <v>393</v>
@@ -5048,14 +5055,14 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>302</v>
+        <v>539</v>
       </c>
       <c r="B90" s="19" t="s">
         <v>90</v>
       </c>
       <c r="C90" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6664-7315</v>
+        <v>010-6770-3373</v>
       </c>
       <c r="D90" s="15" t="s">
         <v>394</v>
@@ -5077,14 +5084,14 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>303</v>
+        <v>540</v>
       </c>
       <c r="B91" s="19" t="s">
         <v>91</v>
       </c>
       <c r="C91" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1244-5674</v>
+        <v>010-1566-4497</v>
       </c>
       <c r="D91" s="15" t="s">
         <v>395</v>
@@ -5106,14 +5113,14 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
-        <v>304</v>
+        <v>541</v>
       </c>
       <c r="B92" s="19" t="s">
         <v>92</v>
       </c>
       <c r="C92" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1451-4096</v>
+        <v>010-1256-8268</v>
       </c>
       <c r="D92" s="15" t="s">
         <v>396</v>
@@ -5135,14 +5142,14 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>305</v>
+        <v>542</v>
       </c>
       <c r="B93" s="19" t="s">
         <v>93</v>
       </c>
       <c r="C93" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7494-2973</v>
+        <v>010-6436-5730</v>
       </c>
       <c r="D93" s="15" t="s">
         <v>397</v>
@@ -5164,14 +5171,14 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>306</v>
+        <v>543</v>
       </c>
       <c r="B94" s="19" t="s">
         <v>94</v>
       </c>
       <c r="C94" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9707-6098</v>
+        <v>010-4096-2585</v>
       </c>
       <c r="D94" s="15" t="s">
         <v>398</v>
@@ -5193,14 +5200,14 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>307</v>
+        <v>544</v>
       </c>
       <c r="B95" s="19" t="s">
         <v>95</v>
       </c>
       <c r="C95" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5592-3423</v>
+        <v>010-2388-0618</v>
       </c>
       <c r="D95" s="15" t="s">
         <v>412</v>
@@ -5222,14 +5229,14 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
-        <v>308</v>
+        <v>545</v>
       </c>
       <c r="B96" s="19" t="s">
         <v>96</v>
       </c>
       <c r="C96" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7732-4170</v>
+        <v>010-9320-5852</v>
       </c>
       <c r="D96" s="15" t="s">
         <v>413</v>
@@ -5251,14 +5258,14 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
-        <v>309</v>
+        <v>546</v>
       </c>
       <c r="B97" s="19" t="s">
         <v>97</v>
       </c>
       <c r="C97" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2240-9722</v>
+        <v>010-1353-1036</v>
       </c>
       <c r="D97" s="15" t="s">
         <v>399</v>
@@ -5280,14 +5287,14 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
-        <v>310</v>
+        <v>547</v>
       </c>
       <c r="B98" s="19" t="s">
         <v>98</v>
       </c>
       <c r="C98" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7802-4816</v>
+        <v>010-8409-6280</v>
       </c>
       <c r="D98" s="15" t="s">
         <v>400</v>
@@ -5309,14 +5316,14 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
-        <v>311</v>
+        <v>548</v>
       </c>
       <c r="B99" s="19" t="s">
         <v>99</v>
       </c>
       <c r="C99" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4188-9302</v>
+        <v>010-9233-4410</v>
       </c>
       <c r="D99" s="15" t="s">
         <v>401</v>
@@ -5338,14 +5345,14 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
-        <v>312</v>
+        <v>549</v>
       </c>
       <c r="B100" s="19" t="s">
         <v>100</v>
       </c>
       <c r="C100" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4972-1045</v>
+        <v>010-6250-6416</v>
       </c>
       <c r="D100" s="15" t="s">
         <v>402</v>
@@ -5366,15 +5373,15 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="6" t="s">
-        <v>313</v>
+      <c r="A101" s="4" t="s">
+        <v>550</v>
       </c>
       <c r="B101" s="20" t="s">
         <v>101</v>
       </c>
       <c r="C101" s="14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5626-6168</v>
+        <v>010-6396-6610</v>
       </c>
       <c r="D101" s="16" t="s">
         <v>403</v>
@@ -5399,7 +5406,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:A101 F2:F101" numberStoredAsText="1"/>
+    <ignoredError sqref="F2:F101" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -5552,7 +5559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B135" sqref="B135:B141"/>
     </sheetView>
   </sheetViews>
@@ -15443,39 +15450,39 @@
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:I22" ca="1" si="0">RANDBETWEEN(50,100)</f>
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2:I17" ca="1" si="1">RANDBETWEEN(50,100)</f>
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="J2">
         <f ca="1">SUM(C2:E2)</f>
-        <v>168</v>
+        <v>228</v>
       </c>
       <c r="K2">
         <f ca="1">ROUND(AVERAGE(C2:E2),0)</f>
-        <v>56</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -15487,39 +15494,39 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:I23" ca="1" si="2">RANDBETWEEN(50,100)</f>
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J21" ca="1" si="3">SUM(C3:E3)</f>
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K21" ca="1" si="4">ROUND(AVERAGE(C3:E3),0)</f>
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -15531,39 +15538,39 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="3"/>
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -15575,39 +15582,39 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="3"/>
-        <v>170</v>
+        <v>224</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -15619,39 +15626,39 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="3"/>
-        <v>173</v>
+        <v>222</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -15663,39 +15670,39 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="3"/>
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -15707,39 +15714,39 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="3"/>
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -15751,39 +15758,39 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="3"/>
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -15795,39 +15802,39 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="3"/>
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -15839,39 +15846,39 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="3"/>
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -15883,39 +15890,39 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="3"/>
-        <v>183</v>
+        <v>259</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -15927,23 +15934,23 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="1"/>
@@ -15951,15 +15958,15 @@
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="3"/>
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -15975,35 +15982,35 @@
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="3"/>
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -16015,39 +16022,39 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="3"/>
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -16059,39 +16066,39 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="3"/>
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -16103,39 +16110,39 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="3"/>
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -16147,39 +16154,39 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="3"/>
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="4"/>
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -16191,39 +16198,39 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="3"/>
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -16235,39 +16242,39 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="3"/>
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -16283,35 +16290,35 @@
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="3"/>
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -16323,39 +16330,39 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J22">
         <f t="shared" ref="J22:J85" ca="1" si="5">SUM(C22:E22)</f>
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="K22">
         <f t="shared" ref="K22:K85" ca="1" si="6">ROUND(AVERAGE(C22:E22),0)</f>
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -16367,39 +16374,39 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="5"/>
-        <v>199</v>
+        <v>270</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="6"/>
-        <v>66</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -16411,39 +16418,39 @@
       </c>
       <c r="C24">
         <f t="shared" ref="C24:I87" ca="1" si="7">RANDBETWEEN(50,100)</f>
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="7"/>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="7"/>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="7"/>
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="5"/>
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -16455,23 +16462,23 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="7"/>
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="7"/>
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="7"/>
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="7"/>
@@ -16479,15 +16486,15 @@
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="7"/>
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="5"/>
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="6"/>
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -16499,39 +16506,39 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="7"/>
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="7"/>
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="7"/>
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="7"/>
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="5"/>
-        <v>260</v>
+        <v>218</v>
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="6"/>
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -16543,19 +16550,19 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="7"/>
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="7"/>
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="7"/>
@@ -16563,19 +16570,19 @@
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="5"/>
-        <v>195</v>
+        <v>244</v>
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="6"/>
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -16587,23 +16594,23 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="7"/>
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="7"/>
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="7"/>
@@ -16611,15 +16618,15 @@
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="7"/>
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="5"/>
-        <v>202</v>
+        <v>242</v>
       </c>
       <c r="K28">
         <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -16631,39 +16638,39 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="7"/>
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="7"/>
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="7"/>
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="7"/>
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="7"/>
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="7"/>
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="J29">
         <f t="shared" ca="1" si="5"/>
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="K29">
         <f t="shared" ca="1" si="6"/>
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -16675,39 +16682,39 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="7"/>
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="7"/>
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="7"/>
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="7"/>
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="5"/>
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -16719,39 +16726,39 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="7"/>
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="7"/>
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="7"/>
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="7"/>
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="7"/>
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J31">
         <f t="shared" ca="1" si="5"/>
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="K31">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -16763,39 +16770,39 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="7"/>
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="7"/>
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="7"/>
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="7"/>
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="I32">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="J32">
         <f t="shared" ca="1" si="5"/>
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="K32">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -16807,39 +16814,39 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="7"/>
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="7"/>
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="7"/>
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="7"/>
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I33">
         <f t="shared" ca="1" si="7"/>
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="J33">
         <f t="shared" ca="1" si="5"/>
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="K33">
         <f t="shared" ca="1" si="6"/>
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -16851,39 +16858,39 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="7"/>
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="7"/>
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="7"/>
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="7"/>
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="7"/>
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="I34">
         <f t="shared" ca="1" si="7"/>
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="J34">
         <f t="shared" ca="1" si="5"/>
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="K34">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -16895,39 +16902,39 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="7"/>
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="7"/>
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="7"/>
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="7"/>
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I35">
         <f t="shared" ca="1" si="7"/>
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="J35">
         <f t="shared" ca="1" si="5"/>
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="K35">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -16939,39 +16946,39 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="7"/>
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="7"/>
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="7"/>
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="H36">
         <f t="shared" ref="F36:I99" ca="1" si="8">RANDBETWEEN(50,100)</f>
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="I36">
         <f t="shared" ca="1" si="8"/>
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J36">
         <f t="shared" ca="1" si="5"/>
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K36">
         <f t="shared" ca="1" si="6"/>
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -16983,39 +16990,39 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="7"/>
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="7"/>
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="E37">
         <f t="shared" ref="E37:I100" ca="1" si="9">RANDBETWEEN(50,100)</f>
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="8"/>
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="8"/>
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="I37">
         <f t="shared" ca="1" si="8"/>
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="J37">
         <f t="shared" ca="1" si="5"/>
-        <v>211</v>
+        <v>244</v>
       </c>
       <c r="K37">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -17027,39 +17034,39 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="7"/>
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="9"/>
+        <v>78</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ca="1" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="G38">
+        <f t="shared" ca="1" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="H38">
+        <f t="shared" ca="1" si="8"/>
+        <v>69</v>
+      </c>
+      <c r="I38">
+        <f t="shared" ca="1" si="8"/>
         <v>77</v>
-      </c>
-      <c r="F38">
-        <f t="shared" ca="1" si="8"/>
-        <v>66</v>
-      </c>
-      <c r="G38">
-        <f t="shared" ca="1" si="8"/>
-        <v>98</v>
-      </c>
-      <c r="H38">
-        <f t="shared" ca="1" si="8"/>
-        <v>88</v>
-      </c>
-      <c r="I38">
-        <f t="shared" ca="1" si="8"/>
-        <v>60</v>
       </c>
       <c r="J38">
         <f t="shared" ca="1" si="5"/>
-        <v>200</v>
+        <v>258</v>
       </c>
       <c r="K38">
         <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -17071,39 +17078,39 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="7"/>
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="7"/>
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="9"/>
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="8"/>
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="8"/>
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="I39">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="J39">
         <f t="shared" ca="1" si="5"/>
-        <v>255</v>
+        <v>194</v>
       </c>
       <c r="K39">
         <f t="shared" ca="1" si="6"/>
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -17115,39 +17122,39 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="7"/>
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="7"/>
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="9"/>
+        <v>73</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ca="1" si="8"/>
+        <v>58</v>
+      </c>
+      <c r="G40">
+        <f t="shared" ca="1" si="8"/>
+        <v>73</v>
+      </c>
+      <c r="H40">
+        <f t="shared" ca="1" si="8"/>
+        <v>55</v>
+      </c>
+      <c r="I40">
+        <f t="shared" ca="1" si="8"/>
         <v>88</v>
-      </c>
-      <c r="F40">
-        <f t="shared" ca="1" si="8"/>
-        <v>73</v>
-      </c>
-      <c r="G40">
-        <f t="shared" ca="1" si="8"/>
-        <v>58</v>
-      </c>
-      <c r="H40">
-        <f t="shared" ca="1" si="8"/>
-        <v>95</v>
-      </c>
-      <c r="I40">
-        <f t="shared" ca="1" si="8"/>
-        <v>63</v>
       </c>
       <c r="J40">
         <f t="shared" ca="1" si="5"/>
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="K40">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -17159,39 +17166,39 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="7"/>
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="7"/>
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="9"/>
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="8"/>
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="8"/>
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="I41">
         <f t="shared" ca="1" si="8"/>
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="J41">
         <f t="shared" ca="1" si="5"/>
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="K41">
         <f t="shared" ca="1" si="6"/>
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -17203,39 +17210,39 @@
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="9"/>
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="8"/>
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="8"/>
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="8"/>
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I42">
         <f t="shared" ca="1" si="8"/>
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="J42">
         <f t="shared" ca="1" si="5"/>
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="K42">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -17247,39 +17254,39 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="7"/>
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="7"/>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="9"/>
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="8"/>
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I43">
         <f t="shared" ca="1" si="8"/>
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="J43">
         <f t="shared" ca="1" si="5"/>
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="K43">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -17291,39 +17298,39 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="7"/>
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="7"/>
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="9"/>
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="8"/>
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="I44">
         <f t="shared" ca="1" si="8"/>
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J44">
         <f t="shared" ca="1" si="5"/>
-        <v>277</v>
+        <v>240</v>
       </c>
       <c r="K44">
         <f t="shared" ca="1" si="6"/>
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -17335,39 +17342,39 @@
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="7"/>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="7"/>
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="9"/>
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="8"/>
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="8"/>
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="8"/>
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="I45">
         <f t="shared" ca="1" si="8"/>
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="J45">
         <f t="shared" ca="1" si="5"/>
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="K45">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -17379,39 +17386,39 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="9"/>
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="8"/>
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="8"/>
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="8"/>
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="I46">
         <f t="shared" ca="1" si="8"/>
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="J46">
         <f t="shared" ca="1" si="5"/>
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="K46">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -17423,39 +17430,39 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="7"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="9"/>
+        <v>55</v>
+      </c>
+      <c r="F47">
+        <f t="shared" ca="1" si="8"/>
+        <v>52</v>
+      </c>
+      <c r="G47">
+        <f t="shared" ca="1" si="8"/>
+        <v>68</v>
+      </c>
+      <c r="H47">
+        <f t="shared" ca="1" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="I47">
+        <f t="shared" ca="1" si="8"/>
         <v>92</v>
-      </c>
-      <c r="F47">
-        <f t="shared" ca="1" si="8"/>
-        <v>70</v>
-      </c>
-      <c r="G47">
-        <f t="shared" ca="1" si="8"/>
-        <v>68</v>
-      </c>
-      <c r="H47">
-        <f t="shared" ca="1" si="8"/>
-        <v>93</v>
-      </c>
-      <c r="I47">
-        <f t="shared" ca="1" si="8"/>
-        <v>62</v>
       </c>
       <c r="J47">
         <f t="shared" ca="1" si="5"/>
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="K47">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -17467,23 +17474,23 @@
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="7"/>
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="7"/>
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="9"/>
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="8"/>
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="8"/>
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H48">
         <f t="shared" ca="1" si="8"/>
@@ -17491,15 +17498,15 @@
       </c>
       <c r="I48">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="J48">
         <f t="shared" ca="1" si="5"/>
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="K48">
         <f t="shared" ca="1" si="6"/>
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -17511,39 +17518,39 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="7"/>
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="7"/>
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="9"/>
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="8"/>
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="8"/>
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="8"/>
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="I49">
         <f t="shared" ca="1" si="8"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="J49">
         <f t="shared" ca="1" si="5"/>
-        <v>192</v>
+        <v>240</v>
       </c>
       <c r="K49">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -17555,39 +17562,39 @@
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="9"/>
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="8"/>
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="8"/>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="8"/>
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="I50">
         <f t="shared" ca="1" si="8"/>
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J50">
         <f t="shared" ca="1" si="5"/>
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="K50">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -17599,15 +17606,15 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="7"/>
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="7"/>
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="9"/>
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="8"/>
@@ -17615,23 +17622,23 @@
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="8"/>
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="I51">
         <f t="shared" ca="1" si="8"/>
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J51">
         <f t="shared" ca="1" si="5"/>
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K51">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -17643,39 +17650,39 @@
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="7"/>
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="9"/>
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="8"/>
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="8"/>
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="H52">
         <f t="shared" ca="1" si="8"/>
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="I52">
         <f t="shared" ca="1" si="8"/>
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J52">
         <f t="shared" ca="1" si="5"/>
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="K52">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -17687,39 +17694,39 @@
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="7"/>
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="9"/>
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="8"/>
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="8"/>
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="H53">
         <f t="shared" ca="1" si="8"/>
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I53">
         <f t="shared" ca="1" si="8"/>
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="J53">
         <f t="shared" ca="1" si="5"/>
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="K53">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -17731,39 +17738,39 @@
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="7"/>
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="7"/>
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="9"/>
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="8"/>
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="8"/>
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="8"/>
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I54">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="J54">
         <f t="shared" ca="1" si="5"/>
-        <v>253</v>
+        <v>204</v>
       </c>
       <c r="K54">
         <f t="shared" ca="1" si="6"/>
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -17775,39 +17782,39 @@
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="7"/>
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="9"/>
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="8"/>
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="8"/>
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="I55">
         <f t="shared" ca="1" si="8"/>
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J55">
         <f t="shared" ca="1" si="5"/>
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="K55">
         <f t="shared" ca="1" si="6"/>
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -17819,39 +17826,39 @@
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="7"/>
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="9"/>
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="8"/>
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="8"/>
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H56">
         <f t="shared" ca="1" si="8"/>
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="I56">
         <f t="shared" ca="1" si="8"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J56">
         <f t="shared" ca="1" si="5"/>
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="K56">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -17863,39 +17870,39 @@
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="7"/>
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="9"/>
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="8"/>
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="8"/>
+        <v>99</v>
+      </c>
+      <c r="H57">
+        <f t="shared" ca="1" si="8"/>
+        <v>64</v>
+      </c>
+      <c r="I57">
+        <f t="shared" ca="1" si="8"/>
         <v>70</v>
-      </c>
-      <c r="H57">
-        <f t="shared" ca="1" si="8"/>
-        <v>61</v>
-      </c>
-      <c r="I57">
-        <f t="shared" ca="1" si="8"/>
-        <v>64</v>
       </c>
       <c r="J57">
         <f t="shared" ca="1" si="5"/>
-        <v>179</v>
+        <v>216</v>
       </c>
       <c r="K57">
         <f t="shared" ca="1" si="6"/>
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -17907,39 +17914,39 @@
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="7"/>
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="9"/>
+        <v>77</v>
+      </c>
+      <c r="F58">
+        <f t="shared" ca="1" si="8"/>
+        <v>63</v>
+      </c>
+      <c r="G58">
+        <f t="shared" ca="1" si="8"/>
+        <v>54</v>
+      </c>
+      <c r="H58">
+        <f t="shared" ca="1" si="8"/>
+        <v>66</v>
+      </c>
+      <c r="I58">
+        <f t="shared" ca="1" si="8"/>
         <v>76</v>
-      </c>
-      <c r="F58">
-        <f t="shared" ca="1" si="8"/>
-        <v>81</v>
-      </c>
-      <c r="G58">
-        <f t="shared" ca="1" si="8"/>
-        <v>72</v>
-      </c>
-      <c r="H58">
-        <f t="shared" ca="1" si="8"/>
-        <v>73</v>
-      </c>
-      <c r="I58">
-        <f t="shared" ca="1" si="8"/>
-        <v>86</v>
       </c>
       <c r="J58">
         <f t="shared" ca="1" si="5"/>
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="K58">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -17951,39 +17958,39 @@
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="7"/>
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="7"/>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="9"/>
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="8"/>
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="8"/>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H59">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I59">
         <f t="shared" ca="1" si="8"/>
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="J59">
         <f t="shared" ca="1" si="5"/>
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="K59">
         <f t="shared" ca="1" si="6"/>
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -17995,27 +18002,27 @@
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="7"/>
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="9"/>
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="8"/>
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="8"/>
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="H60">
         <f t="shared" ca="1" si="8"/>
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="I60">
         <f t="shared" ca="1" si="8"/>
@@ -18023,11 +18030,11 @@
       </c>
       <c r="J60">
         <f t="shared" ca="1" si="5"/>
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="K60">
         <f t="shared" ca="1" si="6"/>
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -18039,39 +18046,39 @@
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="7"/>
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="7"/>
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="9"/>
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="8"/>
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="8"/>
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="H61">
         <f t="shared" ca="1" si="8"/>
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="I61">
         <f t="shared" ca="1" si="8"/>
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J61">
         <f t="shared" ca="1" si="5"/>
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="K61">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -18083,35 +18090,35 @@
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="7"/>
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="9"/>
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="8"/>
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="8"/>
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="H62">
         <f t="shared" ca="1" si="8"/>
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="I62">
         <f t="shared" ca="1" si="8"/>
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="J62">
         <f t="shared" ca="1" si="5"/>
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K62">
         <f t="shared" ca="1" si="6"/>
@@ -18127,39 +18134,39 @@
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="7"/>
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="7"/>
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="9"/>
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="8"/>
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="8"/>
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H63">
         <f t="shared" ca="1" si="8"/>
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="I63">
         <f t="shared" ca="1" si="8"/>
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J63">
         <f t="shared" ca="1" si="5"/>
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K63">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -18171,39 +18178,39 @@
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="7"/>
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="9"/>
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="8"/>
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="8"/>
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H64">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="I64">
         <f t="shared" ca="1" si="8"/>
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="J64">
         <f t="shared" ca="1" si="5"/>
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="K64">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -18215,39 +18222,39 @@
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="7"/>
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="7"/>
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="9"/>
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="8"/>
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="H65">
         <f t="shared" ca="1" si="8"/>
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="I65">
         <f t="shared" ca="1" si="8"/>
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="J65">
         <f t="shared" ca="1" si="5"/>
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="K65">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -18259,39 +18266,39 @@
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="7"/>
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="7"/>
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="9"/>
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="8"/>
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="8"/>
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="H66">
         <f t="shared" ca="1" si="8"/>
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="I66">
         <f t="shared" ca="1" si="8"/>
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J66">
         <f t="shared" ca="1" si="5"/>
-        <v>240</v>
+        <v>194</v>
       </c>
       <c r="K66">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -18303,39 +18310,39 @@
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="7"/>
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="7"/>
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="9"/>
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="8"/>
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="G67">
         <f t="shared" ca="1" si="8"/>
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="H67">
         <f t="shared" ca="1" si="8"/>
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="I67">
         <f t="shared" ca="1" si="8"/>
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="J67">
         <f t="shared" ca="1" si="5"/>
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="K67">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -18347,39 +18354,39 @@
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="7"/>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="9"/>
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="8"/>
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="G68">
         <f t="shared" ca="1" si="8"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H68">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="I68">
         <f t="shared" ca="1" si="8"/>
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="J68">
         <f t="shared" ca="1" si="5"/>
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="K68">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -18395,35 +18402,35 @@
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="9"/>
+        <v>81</v>
+      </c>
+      <c r="F69">
+        <f t="shared" ca="1" si="8"/>
+        <v>57</v>
+      </c>
+      <c r="G69">
+        <f t="shared" ca="1" si="8"/>
+        <v>57</v>
+      </c>
+      <c r="H69">
+        <f t="shared" ca="1" si="8"/>
         <v>98</v>
       </c>
-      <c r="F69">
-        <f t="shared" ca="1" si="8"/>
-        <v>77</v>
-      </c>
-      <c r="G69">
-        <f t="shared" ca="1" si="8"/>
-        <v>98</v>
-      </c>
-      <c r="H69">
-        <f t="shared" ca="1" si="8"/>
-        <v>50</v>
-      </c>
       <c r="I69">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J69">
         <f t="shared" ca="1" si="5"/>
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="K69">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -18435,27 +18442,27 @@
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="7"/>
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="7"/>
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="9"/>
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H70">
         <f t="shared" ca="1" si="8"/>
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="I70">
         <f t="shared" ca="1" si="8"/>
@@ -18463,11 +18470,11 @@
       </c>
       <c r="J70">
         <f t="shared" ca="1" si="5"/>
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="K70">
         <f t="shared" ca="1" si="6"/>
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -18479,39 +18486,39 @@
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="7"/>
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="9"/>
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="8"/>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="8"/>
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H71">
         <f t="shared" ca="1" si="8"/>
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I71">
         <f t="shared" ca="1" si="8"/>
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="J71">
         <f t="shared" ca="1" si="5"/>
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="K71">
         <f t="shared" ca="1" si="6"/>
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -18523,39 +18530,39 @@
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="7"/>
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="9"/>
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="8"/>
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="H72">
         <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="I72">
         <f t="shared" ca="1" si="8"/>
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J72">
         <f t="shared" ca="1" si="5"/>
-        <v>222</v>
+        <v>271</v>
       </c>
       <c r="K72">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -18567,39 +18574,39 @@
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="7"/>
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="7"/>
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="9"/>
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="8"/>
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="H73">
         <f t="shared" ca="1" si="8"/>
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="I73">
         <f t="shared" ca="1" si="8"/>
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="J73">
         <f t="shared" ca="1" si="5"/>
-        <v>282</v>
+        <v>200</v>
       </c>
       <c r="K73">
         <f t="shared" ca="1" si="6"/>
-        <v>94</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
@@ -18611,39 +18618,39 @@
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="9"/>
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="8"/>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H74">
         <f t="shared" ca="1" si="8"/>
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="I74">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="J74">
         <f t="shared" ca="1" si="5"/>
-        <v>188</v>
+        <v>247</v>
       </c>
       <c r="K74">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
@@ -18655,39 +18662,39 @@
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="7"/>
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="9"/>
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="8"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="8"/>
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="H75">
         <f t="shared" ca="1" si="8"/>
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="I75">
         <f t="shared" ca="1" si="8"/>
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="J75">
         <f t="shared" ca="1" si="5"/>
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="K75">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
@@ -18699,39 +18706,39 @@
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="7"/>
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="7"/>
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="9"/>
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="8"/>
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="G76">
         <f t="shared" ca="1" si="8"/>
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="H76">
         <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="I76">
         <f t="shared" ca="1" si="8"/>
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="J76">
         <f t="shared" ca="1" si="5"/>
-        <v>254</v>
+        <v>193</v>
       </c>
       <c r="K76">
         <f t="shared" ca="1" si="6"/>
-        <v>85</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
@@ -18743,39 +18750,39 @@
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="7"/>
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="7"/>
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="9"/>
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="8"/>
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G77">
         <f t="shared" ca="1" si="8"/>
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="H77">
         <f t="shared" ca="1" si="8"/>
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="I77">
         <f t="shared" ca="1" si="8"/>
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="J77">
         <f t="shared" ca="1" si="5"/>
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="K77">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
@@ -18787,39 +18794,39 @@
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="7"/>
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="9"/>
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="8"/>
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G78">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="H78">
         <f t="shared" ca="1" si="8"/>
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I78">
         <f t="shared" ca="1" si="8"/>
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J78">
         <f t="shared" ca="1" si="5"/>
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="K78">
         <f t="shared" ca="1" si="6"/>
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
@@ -18831,39 +18838,39 @@
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="7"/>
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="9"/>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="8"/>
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="G79">
         <f t="shared" ca="1" si="8"/>
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="H79">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="I79">
         <f t="shared" ca="1" si="8"/>
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="J79">
         <f t="shared" ca="1" si="5"/>
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="K79">
         <f t="shared" ca="1" si="6"/>
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
@@ -18875,39 +18882,39 @@
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="7"/>
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="9"/>
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="8"/>
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G80">
         <f t="shared" ca="1" si="8"/>
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="H80">
         <f t="shared" ca="1" si="8"/>
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="I80">
         <f t="shared" ca="1" si="8"/>
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="J80">
         <f t="shared" ca="1" si="5"/>
-        <v>215</v>
+        <v>275</v>
       </c>
       <c r="K80">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -18919,15 +18926,15 @@
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="9"/>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="8"/>
@@ -18935,23 +18942,23 @@
       </c>
       <c r="G81">
         <f t="shared" ca="1" si="8"/>
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="H81">
         <f t="shared" ca="1" si="8"/>
+        <v>54</v>
+      </c>
+      <c r="I81">
+        <f t="shared" ca="1" si="8"/>
         <v>66</v>
-      </c>
-      <c r="I81">
-        <f t="shared" ca="1" si="8"/>
-        <v>64</v>
       </c>
       <c r="J81">
         <f t="shared" ca="1" si="5"/>
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="K81">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -18963,35 +18970,35 @@
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="7"/>
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="9"/>
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="8"/>
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="G82">
         <f t="shared" ca="1" si="8"/>
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="H82">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="I82">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="J82">
         <f t="shared" ca="1" si="5"/>
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K82">
         <f t="shared" ca="1" si="6"/>
@@ -19007,39 +19014,39 @@
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="7"/>
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="9"/>
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="8"/>
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="G83">
         <f t="shared" ca="1" si="8"/>
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="H83">
         <f t="shared" ca="1" si="8"/>
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="I83">
         <f t="shared" ca="1" si="8"/>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J83">
         <f t="shared" ca="1" si="5"/>
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="K83">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
@@ -19051,39 +19058,39 @@
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="7"/>
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="9"/>
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="G84">
         <f t="shared" ca="1" si="8"/>
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="H84">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I84">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="J84">
         <f t="shared" ca="1" si="5"/>
-        <v>260</v>
+        <v>218</v>
       </c>
       <c r="K84">
         <f t="shared" ca="1" si="6"/>
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -19095,39 +19102,39 @@
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="7"/>
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="7"/>
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="9"/>
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="G85">
         <f t="shared" ca="1" si="8"/>
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="H85">
         <f t="shared" ca="1" si="8"/>
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="I85">
         <f t="shared" ca="1" si="8"/>
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J85">
         <f t="shared" ca="1" si="5"/>
-        <v>254</v>
+        <v>178</v>
       </c>
       <c r="K85">
         <f t="shared" ca="1" si="6"/>
-        <v>85</v>
+        <v>59</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -19139,39 +19146,39 @@
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="7"/>
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="9"/>
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="8"/>
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G86">
         <f t="shared" ca="1" si="8"/>
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="H86">
         <f t="shared" ca="1" si="8"/>
+        <v>90</v>
+      </c>
+      <c r="I86">
+        <f t="shared" ca="1" si="8"/>
         <v>91</v>
-      </c>
-      <c r="I86">
-        <f t="shared" ca="1" si="8"/>
-        <v>89</v>
       </c>
       <c r="J86">
         <f t="shared" ref="J86:J101" ca="1" si="10">SUM(C86:E86)</f>
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="K86">
         <f t="shared" ref="K86:K101" ca="1" si="11">ROUND(AVERAGE(C86:E86),0)</f>
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -19183,39 +19190,39 @@
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="7"/>
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="7"/>
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="9"/>
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="8"/>
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G87">
         <f t="shared" ca="1" si="8"/>
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H87">
         <f t="shared" ca="1" si="8"/>
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="I87">
         <f t="shared" ca="1" si="8"/>
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J87">
         <f t="shared" ca="1" si="10"/>
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="K87">
         <f t="shared" ca="1" si="11"/>
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
@@ -19227,39 +19234,39 @@
       </c>
       <c r="C88">
         <f t="shared" ref="C88:I101" ca="1" si="12">RANDBETWEEN(50,100)</f>
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="12"/>
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="9"/>
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="8"/>
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G88">
         <f t="shared" ca="1" si="8"/>
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="H88">
         <f t="shared" ca="1" si="8"/>
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="I88">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="J88">
         <f t="shared" ca="1" si="10"/>
-        <v>272</v>
+        <v>225</v>
       </c>
       <c r="K88">
         <f t="shared" ca="1" si="11"/>
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -19271,39 +19278,39 @@
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="12"/>
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="12"/>
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="9"/>
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="8"/>
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="G89">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="H89">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="I89">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="J89">
         <f t="shared" ca="1" si="10"/>
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K89">
         <f t="shared" ca="1" si="11"/>
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -19315,39 +19322,39 @@
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="12"/>
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="12"/>
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="9"/>
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="8"/>
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="G90">
         <f t="shared" ca="1" si="8"/>
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H90">
         <f t="shared" ca="1" si="8"/>
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I90">
         <f t="shared" ca="1" si="8"/>
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="J90">
         <f t="shared" ca="1" si="10"/>
-        <v>205</v>
+        <v>245</v>
       </c>
       <c r="K90">
         <f t="shared" ca="1" si="11"/>
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
@@ -19359,23 +19366,23 @@
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="12"/>
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="12"/>
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="9"/>
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="8"/>
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G91">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H91">
         <f t="shared" ca="1" si="8"/>
@@ -19383,15 +19390,15 @@
       </c>
       <c r="I91">
         <f t="shared" ca="1" si="8"/>
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="J91">
         <f t="shared" ca="1" si="10"/>
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="K91">
         <f t="shared" ca="1" si="11"/>
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -19403,39 +19410,39 @@
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="12"/>
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="12"/>
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="9"/>
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="G92">
         <f t="shared" ca="1" si="8"/>
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="H92">
         <f t="shared" ca="1" si="8"/>
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="I92">
         <f t="shared" ca="1" si="8"/>
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J92">
         <f t="shared" ca="1" si="10"/>
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="K92">
         <f t="shared" ca="1" si="11"/>
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -19447,39 +19454,39 @@
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="12"/>
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="12"/>
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="9"/>
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="8"/>
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="G93">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H93">
         <f t="shared" ca="1" si="8"/>
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I93">
         <f t="shared" ca="1" si="8"/>
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="J93">
         <f t="shared" ca="1" si="10"/>
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="K93">
         <f t="shared" ca="1" si="11"/>
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
@@ -19491,39 +19498,39 @@
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="12"/>
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="12"/>
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="9"/>
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="8"/>
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G94">
         <f t="shared" ca="1" si="8"/>
+        <v>98</v>
+      </c>
+      <c r="H94">
+        <f t="shared" ca="1" si="8"/>
         <v>74</v>
       </c>
-      <c r="H94">
-        <f t="shared" ca="1" si="8"/>
-        <v>63</v>
-      </c>
       <c r="I94">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="J94">
         <f t="shared" ca="1" si="10"/>
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="K94">
         <f t="shared" ca="1" si="11"/>
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
@@ -19535,39 +19542,39 @@
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="12"/>
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="12"/>
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="9"/>
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="8"/>
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G95">
         <f t="shared" ca="1" si="8"/>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H95">
         <f t="shared" ca="1" si="8"/>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I95">
         <f t="shared" ca="1" si="8"/>
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J95">
         <f t="shared" ca="1" si="10"/>
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="K95">
         <f t="shared" ca="1" si="11"/>
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
@@ -19579,39 +19586,39 @@
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="12"/>
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="12"/>
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="9"/>
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="8"/>
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G96">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="H96">
         <f t="shared" ca="1" si="8"/>
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="I96">
         <f t="shared" ca="1" si="8"/>
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="J96">
         <f t="shared" ca="1" si="10"/>
-        <v>254</v>
+        <v>200</v>
       </c>
       <c r="K96">
         <f t="shared" ca="1" si="11"/>
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
@@ -19623,39 +19630,39 @@
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="12"/>
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="12"/>
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="9"/>
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="8"/>
+        <v>87</v>
+      </c>
+      <c r="G97">
+        <f t="shared" ca="1" si="8"/>
+        <v>80</v>
+      </c>
+      <c r="H97">
+        <f t="shared" ca="1" si="8"/>
+        <v>95</v>
+      </c>
+      <c r="I97">
+        <f t="shared" ca="1" si="8"/>
         <v>92</v>
-      </c>
-      <c r="G97">
-        <f t="shared" ca="1" si="8"/>
-        <v>81</v>
-      </c>
-      <c r="H97">
-        <f t="shared" ca="1" si="8"/>
-        <v>80</v>
-      </c>
-      <c r="I97">
-        <f t="shared" ca="1" si="8"/>
-        <v>81</v>
       </c>
       <c r="J97">
         <f t="shared" ca="1" si="10"/>
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K97">
         <f t="shared" ca="1" si="11"/>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
@@ -19667,35 +19674,35 @@
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="12"/>
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="12"/>
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="9"/>
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="8"/>
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="G98">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H98">
         <f t="shared" ca="1" si="8"/>
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="I98">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="J98">
         <f t="shared" ca="1" si="10"/>
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K98">
         <f t="shared" ca="1" si="11"/>
@@ -19711,39 +19718,39 @@
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="12"/>
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="12"/>
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="9"/>
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="8"/>
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="G99">
         <f t="shared" ca="1" si="8"/>
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="H99">
         <f t="shared" ca="1" si="8"/>
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I99">
         <f t="shared" ca="1" si="8"/>
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="J99">
         <f t="shared" ca="1" si="10"/>
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="K99">
         <f t="shared" ca="1" si="11"/>
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
@@ -19755,39 +19762,39 @@
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="12"/>
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="12"/>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="9"/>
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="9"/>
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G100">
         <f t="shared" ca="1" si="9"/>
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="H100">
         <f t="shared" ca="1" si="9"/>
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="I100">
         <f t="shared" ca="1" si="9"/>
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="J100">
         <f t="shared" ca="1" si="10"/>
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="K100">
         <f t="shared" ca="1" si="11"/>
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
@@ -19799,39 +19806,39 @@
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="12"/>
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="12"/>
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="12"/>
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="12"/>
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="G101">
         <f t="shared" ca="1" si="12"/>
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="H101">
         <f t="shared" ca="1" si="12"/>
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="I101">
         <f t="shared" ca="1" si="12"/>
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="J101">
         <f t="shared" ca="1" si="10"/>
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="K101">
         <f t="shared" ca="1" si="11"/>
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -19886,23 +19893,23 @@
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:E22" ca="1" si="0">RANDBETWEEN(50,100)</f>
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="F2">
         <f ca="1">SUM(C2:E2)</f>
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="G2">
         <f ca="1">ROUND(AVERAGE(C2:E2),0)</f>
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -19914,23 +19921,23 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:E23" ca="1" si="1">RANDBETWEEN(50,100)</f>
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F66" ca="1" si="2">SUM(C3:E3)</f>
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G66" ca="1" si="3">ROUND(AVERAGE(C3:E3),0)</f>
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -19942,23 +19949,23 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="2"/>
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -19970,23 +19977,23 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="2"/>
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -19998,23 +20005,23 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="2"/>
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -20026,7 +20033,7 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
@@ -20038,11 +20045,11 @@
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="2"/>
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -20054,23 +20061,23 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="2"/>
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -20082,23 +20089,23 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="2"/>
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -20110,23 +20117,23 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="2"/>
-        <v>236</v>
+        <v>279</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -20138,23 +20145,23 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="2"/>
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -20166,23 +20173,23 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="2"/>
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -20194,7 +20201,7 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
@@ -20202,15 +20209,15 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="2"/>
-        <v>196</v>
+        <v>258</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -20222,23 +20229,23 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="2"/>
-        <v>247</v>
+        <v>202</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -20250,23 +20257,23 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="2"/>
-        <v>258</v>
+        <v>218</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -20278,19 +20285,19 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="2"/>
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="3"/>
@@ -20306,23 +20313,23 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="2"/>
-        <v>235</v>
+        <v>273</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -20334,23 +20341,23 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="2"/>
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -20362,23 +20369,23 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="2"/>
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -20390,23 +20397,23 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="2"/>
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -20418,23 +20425,23 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="2"/>
-        <v>215</v>
+        <v>253</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -20446,23 +20453,23 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="2"/>
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="3"/>
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -20474,23 +20481,23 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="2"/>
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -20502,23 +20509,23 @@
       </c>
       <c r="C24">
         <f t="shared" ref="C24:E60" ca="1" si="4">RANDBETWEEN(50,100)</f>
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="2"/>
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -20530,23 +20537,23 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="2"/>
-        <v>196</v>
+        <v>235</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -20558,23 +20565,23 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="2"/>
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -20586,23 +20593,23 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="2"/>
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -20614,23 +20621,23 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="4"/>
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="2"/>
-        <v>224</v>
+        <v>186</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -20642,23 +20649,23 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="2"/>
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -20670,23 +20677,23 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="2"/>
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -20698,23 +20705,23 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="4"/>
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="2"/>
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -20730,19 +20737,19 @@
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="2"/>
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -20754,23 +20761,23 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="4"/>
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="2"/>
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -20782,23 +20789,23 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="2"/>
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -20810,23 +20817,23 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="4"/>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="2"/>
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -20838,23 +20845,23 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="2"/>
-        <v>222</v>
+        <v>269</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -20866,23 +20873,23 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="2"/>
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -20894,23 +20901,23 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="2"/>
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -20922,23 +20929,23 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="4"/>
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="2"/>
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -20950,23 +20957,23 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="4"/>
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="2"/>
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -20978,23 +20985,23 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="4"/>
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="2"/>
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="3"/>
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -21006,23 +21013,23 @@
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="4"/>
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="2"/>
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -21034,11 +21041,11 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="4"/>
@@ -21046,11 +21053,11 @@
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="2"/>
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -21062,23 +21069,23 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="4"/>
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="2"/>
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -21090,23 +21097,23 @@
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="4"/>
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="2"/>
-        <v>231</v>
+        <v>177</v>
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -21118,23 +21125,23 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="2"/>
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -21146,23 +21153,23 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="2"/>
-        <v>186</v>
+        <v>227</v>
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -21174,23 +21181,23 @@
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="4"/>
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="2"/>
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -21202,23 +21209,23 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="2"/>
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -21230,7 +21237,7 @@
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="4"/>
@@ -21238,15 +21245,15 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="4"/>
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="2"/>
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -21258,23 +21265,23 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="2"/>
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -21286,23 +21293,23 @@
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="2"/>
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -21314,23 +21321,23 @@
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="2"/>
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -21342,23 +21349,23 @@
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="4"/>
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="2"/>
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -21370,23 +21377,23 @@
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="4"/>
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="2"/>
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -21398,23 +21405,23 @@
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="4"/>
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="4"/>
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="2"/>
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -21426,23 +21433,23 @@
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="2"/>
-        <v>190</v>
+        <v>253</v>
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -21454,23 +21461,23 @@
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="2"/>
-        <v>182</v>
+        <v>235</v>
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -21482,23 +21489,23 @@
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="4"/>
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="4"/>
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="2"/>
-        <v>279</v>
+        <v>174</v>
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -21510,23 +21517,23 @@
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="2"/>
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -21538,23 +21545,23 @@
       </c>
       <c r="C61">
         <f t="shared" ref="C61:E101" ca="1" si="5">RANDBETWEEN(50,100)</f>
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="2"/>
-        <v>205</v>
+        <v>248</v>
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -21566,23 +21573,23 @@
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="5"/>
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="2"/>
-        <v>245</v>
+        <v>214</v>
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -21594,23 +21601,23 @@
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="2"/>
-        <v>177</v>
+        <v>261</v>
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -21622,23 +21629,23 @@
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="5"/>
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="2"/>
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -21650,23 +21657,23 @@
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="5"/>
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="2"/>
-        <v>155</v>
+        <v>259</v>
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -21678,23 +21685,23 @@
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="5"/>
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="2"/>
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -21706,19 +21713,19 @@
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="5"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="5"/>
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="F67">
         <f t="shared" ref="F67:F101" ca="1" si="6">SUM(C67:E67)</f>
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G101" ca="1" si="7">ROUND(AVERAGE(C67:E67),0)</f>
@@ -21734,23 +21741,23 @@
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="6"/>
-        <v>191</v>
+        <v>248</v>
       </c>
       <c r="G68">
         <f t="shared" ca="1" si="7"/>
-        <v>64</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -21762,23 +21769,23 @@
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="5"/>
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="6"/>
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="G69">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -21790,23 +21797,23 @@
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="6"/>
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -21818,23 +21825,23 @@
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="5"/>
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="5"/>
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="6"/>
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="7"/>
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -21846,23 +21853,23 @@
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="5"/>
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="6"/>
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="7"/>
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -21874,23 +21881,23 @@
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="5"/>
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="6"/>
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -21902,23 +21909,23 @@
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="5"/>
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="5"/>
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="5"/>
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="6"/>
-        <v>273</v>
+        <v>205</v>
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="7"/>
-        <v>91</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -21930,23 +21937,23 @@
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="5"/>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="6"/>
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="7"/>
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -21958,23 +21965,23 @@
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="5"/>
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="5"/>
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="6"/>
-        <v>231</v>
+        <v>285</v>
       </c>
       <c r="G76">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -21986,23 +21993,23 @@
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="5"/>
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="6"/>
-        <v>244</v>
+        <v>198</v>
       </c>
       <c r="G77">
         <f t="shared" ca="1" si="7"/>
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -22014,23 +22021,23 @@
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="6"/>
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="G78">
         <f t="shared" ca="1" si="7"/>
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -22042,23 +22049,23 @@
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="5"/>
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="6"/>
-        <v>265</v>
+        <v>191</v>
       </c>
       <c r="G79">
         <f t="shared" ca="1" si="7"/>
-        <v>88</v>
+        <v>64</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -22070,23 +22077,23 @@
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="5"/>
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="5"/>
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="6"/>
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="G80">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -22098,23 +22105,23 @@
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="5"/>
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="5"/>
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="6"/>
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="G81">
         <f t="shared" ca="1" si="7"/>
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -22126,19 +22133,19 @@
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="5"/>
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="5"/>
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="6"/>
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G82">
         <f t="shared" ca="1" si="7"/>
@@ -22154,23 +22161,23 @@
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="5"/>
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="6"/>
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G83">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -22182,19 +22189,19 @@
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="5"/>
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="5"/>
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="6"/>
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G84">
         <f t="shared" ca="1" si="7"/>
@@ -22210,23 +22217,23 @@
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="5"/>
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="5"/>
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="5"/>
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="6"/>
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="G85">
         <f t="shared" ca="1" si="7"/>
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -22238,23 +22245,23 @@
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="5"/>
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="6"/>
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="G86">
         <f t="shared" ca="1" si="7"/>
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
@@ -22266,23 +22273,23 @@
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="6"/>
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="G87">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -22294,23 +22301,23 @@
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="5"/>
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="5"/>
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="6"/>
-        <v>185</v>
+        <v>258</v>
       </c>
       <c r="G88">
         <f t="shared" ca="1" si="7"/>
-        <v>62</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -22322,23 +22329,23 @@
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="5"/>
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="6"/>
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="G89">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -22350,23 +22357,23 @@
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="5"/>
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="6"/>
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="G90">
         <f t="shared" ca="1" si="7"/>
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -22378,23 +22385,23 @@
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="5"/>
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="6"/>
-        <v>289</v>
+        <v>229</v>
       </c>
       <c r="G91">
         <f t="shared" ca="1" si="7"/>
-        <v>96</v>
+        <v>76</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -22406,23 +22413,23 @@
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="5"/>
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="6"/>
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="G92">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
@@ -22434,19 +22441,19 @@
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="5"/>
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="6"/>
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G93">
         <f t="shared" ca="1" si="7"/>
@@ -22462,23 +22469,23 @@
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="5"/>
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="5"/>
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="6"/>
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="G94">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
@@ -22490,7 +22497,7 @@
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="5"/>
@@ -22498,15 +22505,15 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="6"/>
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="G95">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
@@ -22518,23 +22525,23 @@
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="6"/>
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="G96">
         <f t="shared" ca="1" si="7"/>
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
@@ -22546,23 +22553,23 @@
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="5"/>
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="6"/>
-        <v>205</v>
+        <v>289</v>
       </c>
       <c r="G97">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
@@ -22574,23 +22581,23 @@
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="5"/>
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="6"/>
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G98">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
@@ -22602,11 +22609,11 @@
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="5"/>
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="5"/>
@@ -22614,11 +22621,11 @@
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="6"/>
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G99">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
@@ -22630,23 +22637,23 @@
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="5"/>
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="6"/>
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="G100">
         <f t="shared" ca="1" si="7"/>
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
@@ -22658,23 +22665,23 @@
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="5"/>
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="6"/>
-        <v>281</v>
+        <v>216</v>
       </c>
       <c r="G101">
         <f t="shared" ca="1" si="7"/>
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
